--- a/DATA_goal/Junction_Flooding_257.xlsx
+++ b/DATA_goal/Junction_Flooding_257.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -458,7 +458,7 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -655,103 +655,103 @@
         <v>41689.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.64</v>
+        <v>4.66</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.57</v>
+        <v>3.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.64</v>
+        <v>5.76</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>257.04</v>
+        <v>25.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.36</v>
+        <v>4.84</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.83</v>
+        <v>5.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41689.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>52.25</v>
+        <v>5.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41689.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.33</v>
+        <v>2.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.8</v>
+        <v>3.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>139.15</v>
+        <v>13.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.82</v>
+        <v>2.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.01</v>
+        <v>3.2</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41689.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.34</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.39</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41689.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AC6" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
       <c r="AD6" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>32.89</v>
+        <v>3.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -1175,16 +1175,16 @@
         <v>41689.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="C7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>0.06</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.59</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>0</v>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0</v>
@@ -1232,46 +1232,46 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC7" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.36</v>
-      </c>
       <c r="AD7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41689.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>78.98</v>
+        <v>7.9</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41689.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.28</v>
+        <v>1.53</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>44.54</v>
+        <v>4.45</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>36.72</v>
+        <v>3.67</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>58.63</v>
+        <v>5.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>22.94</v>
+        <v>2.29</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>237.89</v>
+        <v>23.79</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>44.92</v>
+        <v>4.49</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.29</v>
+        <v>3.03</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>29.25</v>
+        <v>2.93</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>53.26</v>
+        <v>5.33</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41689.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>41.1</v>
+        <v>4.11</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>69.89</v>
+        <v>6.99</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.65</v>
+        <v>2.57</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>266.43</v>
+        <v>26.64</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>50.27</v>
+        <v>5.03</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.93</v>
+        <v>3.39</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>34.13</v>
+        <v>3.41</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>21.05</v>
+        <v>2.11</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>63.59</v>
+        <v>6.36</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_257.xlsx
+++ b/DATA_goal/Junction_Flooding_257.xlsx
@@ -655,103 +655,103 @@
         <v>44938.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44938.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44938.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.54</v>
+        <v>55.36</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.46</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44938.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.4</v>
+        <v>84.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.35</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_257.xlsx
+++ b/DATA_goal/Junction_Flooding_257.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44938.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -759,55 +759,55 @@
         <v>44938.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.528</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.08</v>
+        <v>8.081</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.99</v>
+        <v>2.987</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.576</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.594</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>2.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.462</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.57</v>
+        <v>2.567</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.478</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>21</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.43</v>
+        <v>5.431</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.09</v>
+        <v>3.088</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.3</v>
+        <v>2.301</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.06</v>
+        <v>5.057</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.21</v>
+        <v>2.205</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.21</v>
+        <v>2.209</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.85</v>
+        <v>2.852</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.646</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44938.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.68</v>
+        <v>4.685</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.02</v>
+        <v>4.021</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.91</v>
+        <v>10.908</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.1</v>
+        <v>9.095000000000001</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.141</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.28</v>
+        <v>14.284</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.49</v>
+        <v>6.491</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3</v>
+        <v>2.999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.74</v>
+        <v>4.736</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>4.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.184</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.82</v>
+        <v>3.818</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.78</v>
+        <v>5.781</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.39</v>
+        <v>3.389</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.36</v>
+        <v>55.362</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.46</v>
+        <v>11.456</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.66</v>
+        <v>3.662</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.294</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.34</v>
+        <v>4.337</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.76</v>
+        <v>7.756</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.356</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.55</v>
+        <v>3.554</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.9</v>
+        <v>3.904</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.29</v>
+        <v>5.285</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.89</v>
+        <v>12.894</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.4</v>
+        <v>2.401</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.55</v>
+        <v>4.553</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44938.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>60.85</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_257.xlsx
+++ b/DATA_goal/Junction_Flooding_257.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,10 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,103 +967,207 @@
         <v>44938.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.229</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.8</v>
+        <v>5.803</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>16.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.49</v>
+        <v>13.492</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.036</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.846</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.395</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.58</v>
+        <v>6.583</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.06</v>
+        <v>7.059</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.93</v>
+        <v>6.928</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.81</v>
+        <v>1.815</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.76</v>
+        <v>5.759</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.531000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.96</v>
+        <v>4.962</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.146</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.05</v>
+        <v>84.04900000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.76</v>
+        <v>16.764</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.43</v>
+        <v>5.427</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.02</v>
+        <v>11.024</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.15</v>
+        <v>6.153</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.35</v>
+        <v>11.348</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.895</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.38</v>
+        <v>5.385</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.383</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.81</v>
+        <v>19.813</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.334</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.78</v>
+        <v>6.777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44938.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>60.85</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>244.34</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_257.xlsx
+++ b/DATA_goal/Junction_Flooding_257.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,10 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,207 +967,103 @@
         <v>44938.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.229</v>
+        <v>7.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.803</v>
+        <v>5.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>16.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.492</v>
+        <v>13.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.036</v>
+        <v>6.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.846</v>
+        <v>21.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.395</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.282</v>
+        <v>4.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.583</v>
+        <v>6.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.059</v>
+        <v>7.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.928</v>
+        <v>6.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.759</v>
+        <v>5.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.531000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.962</v>
+        <v>4.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.146</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.04900000000001</v>
+        <v>84.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.764</v>
+        <v>16.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.427</v>
+        <v>5.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.024</v>
+        <v>11.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.153</v>
+        <v>6.15</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.348</v>
+        <v>11.35</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.895</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.385</v>
+        <v>5.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.383</v>
+        <v>7.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.813</v>
+        <v>19.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.334</v>
+        <v>3.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.777</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44938.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>60.85</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.96</v>
+        <v>6.78</v>
       </c>
     </row>
   </sheetData>
